--- a/spreadsheets/Maokai.xlsx
+++ b/spreadsheets/Maokai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75F4E60-404A-4AAA-B19E-C99F9DC83646}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8DB563-85D8-4795-A438-575CABE9BE51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
   <si>
     <t>Champion</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Illaoi</t>
-  </si>
-  <si>
-    <t>This matchup is only winnable if they illaoi can't land her E. Doesn't matter your lead on her, if she hits E you lose.</t>
   </si>
   <si>
     <t>Irelia</t>
@@ -264,9 +261,6 @@
     <t>https://www.youtube.com/channel/UCkD0audCDrzuj1UGVC2Dh1A</t>
   </si>
   <si>
-    <t>Don't get cheesed by the levels 1-4 range of quinn. Wait on tabis first then bramble so she can't kite you easy and all in her.</t>
-  </si>
-  <si>
     <t>Renekton</t>
   </si>
   <si>
@@ -326,12 +320,6 @@
     <t>Sion</t>
   </si>
   <si>
-    <t>I have been the#1 and #2 Maokai in the world at the same time with my 2 accounts and have reached challenger playing exclusively Maokai streaming my games in order to teach others how to play the champion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can stop Sion's Q easily with your Q, or just W towards him and walk behind him, you take grasp and outsustain in 1v1 fights and have better peel. </t>
-  </si>
-  <si>
     <t>extra message</t>
   </si>
   <si>
@@ -347,9 +335,6 @@
     <t>He will outscale you and you can't 1v1 him, but you do have very good lockdown on him for teamfights.</t>
   </si>
   <si>
-    <t>discord server</t>
-  </si>
-  <si>
     <t>Sylas</t>
   </si>
   <si>
@@ -414,13 +399,28 @@
   </si>
   <si>
     <t>discord</t>
+  </si>
+  <si>
+    <t>I have been the #1 and #2 Maokai in the world at the same time with my 2 accounts and have reached challenger playing exclusively Maokai streaming my games in order to teach others how to play the champion</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EClQSoq.png</t>
+  </si>
+  <si>
+    <t>This matchup is only winnable if they Illaoi can't land her E. Doesn't matter your lead on her, if she hits E you lose.</t>
+  </si>
+  <si>
+    <t>Don't get cheesed by the levels 1-4 range of Quinn. Wait on tabis first then bramble so she can't kite you easy and all in her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can stop Sion's Q easily with your Q, or just W towards him and walk behind him, you take grasp and out sustain in 1v1 fights and have better peel. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,10 +438,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -454,6 +450,33 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,19 +496,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -775,7 +804,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -824,91 +853,94 @@
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>109</v>
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1897,11 +1929,12 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{2532308F-5ACE-4660-9566-9D2C1A7C5D8F}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{D0BAEF44-9407-4B57-B332-69926336067B}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{58B1237A-BDF6-4CE4-B319-2AA8C0F8CA11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1909,7 +1942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1920,24 +1955,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="9">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1945,13 +1980,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="9">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1959,13 +1994,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="9">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1973,13 +2008,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="9">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1987,13 +2022,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2001,13 +2036,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2015,24 +2050,24 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="9">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2040,399 +2075,399 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="9">
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="9">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="9">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="9">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="9">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="9">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="9">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="9">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="9">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="9">
+        <v>7</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="9">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="C25" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="9">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="C26" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="9">
+        <v>4</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="9">
         <v>6</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="3">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="C29" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="9">
         <v>6</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="C31" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="9">
+        <v>9</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="9">
         <v>7</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="3">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="3">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="3">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="C33" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="9">
+        <v>3</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="9">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="9">
         <v>7</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="3">
+      <c r="C36" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="9">
+        <v>6</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="9">
         <v>8</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="3">
+      <c r="C38" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="9">
         <v>7</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="C39" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="9">
+        <v>3</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="9">
+        <v>3</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="9">
         <v>4</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="3">
+      <c r="C42" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="9">
+        <v>3</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="9">
+        <v>2</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="9">
         <v>6</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="3">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="3">
-        <v>6</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="3">
-        <v>9</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="3">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="3">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="3">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="3">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="3">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="3">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="3">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="3">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="3">
-        <v>3</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="3">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="C45" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="B43" s="3">
-        <v>3</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="3">
-        <v>2</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="3">
-        <v>6</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3392,6 +3427,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/spreadsheets/Maokai.xlsx
+++ b/spreadsheets/Maokai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8DB563-85D8-4795-A438-575CABE9BE51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC2BC26-709F-47E5-821E-07A46DB19FD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34725" yWindow="3450" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,6 @@
     <t>For socials, enter URLs for your desired links.</t>
   </si>
   <si>
-    <t xml:space="preserve">Keep your Q up to knock him away if he jumps on you. Difficult to 1v1 him without kiting towards bush saplings.
-</t>
-  </si>
-  <si>
     <t>twitch</t>
   </si>
   <si>
@@ -401,9 +397,6 @@
     <t>discord</t>
   </si>
   <si>
-    <t>I have been the #1 and #2 Maokai in the world at the same time with my 2 accounts and have reached challenger playing exclusively Maokai streaming my games in order to teach others how to play the champion</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/EClQSoq.png</t>
   </si>
   <si>
@@ -414,6 +407,12 @@
   </si>
   <si>
     <t xml:space="preserve">You can stop Sion's Q easily with your Q, or just W towards him and walk behind him, you take grasp and out sustain in 1v1 fights and have better peel. </t>
+  </si>
+  <si>
+    <t>Keep your Q up to knock him away if he jumps on you. Difficult to 1v1 him without kiting towards bush saplings.</t>
+  </si>
+  <si>
+    <t>I have been the #1 and #2 Maokai in the world at the same time with my 2 accounts and have reached challenger playing exclusively Maokai streaming my games in order to teach others how to play the champion.</t>
   </si>
 </sst>
 </file>
@@ -804,7 +803,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -862,73 +861,73 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -937,10 +936,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1942,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2115,7 +2114,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2137,337 +2136,337 @@
         <v>7</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="9">
         <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="9">
         <v>5</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="9">
         <v>6</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="9">
         <v>7</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="9">
         <v>1</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="9">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="9">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="9">
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="9">
         <v>7</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="9">
         <v>8</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="9">
         <v>7</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="9">
         <v>4</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="9">
         <v>4</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="9">
         <v>6</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="9">
         <v>4</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="9">
         <v>6</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="9">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="9">
         <v>7</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="9">
         <v>3</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="9">
         <v>3</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" s="9">
         <v>7</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="9">
         <v>6</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="9">
         <v>8</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="9">
         <v>7</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" s="9">
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="9">
         <v>3</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="9">
         <v>4</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="9">
         <v>3</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="9">
         <v>2</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="9">
         <v>6</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
